--- a/sem4/curse/Книга1.xlsx
+++ b/sem4/curse/Книга1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\vs\git\lab\sem4\curse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\lab\sem4\curse\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FDEAEF-EEB5-4867-9EF8-261821CF7E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="12030" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
   <si>
     <t xml:space="preserve">IP адрес подсети  10.10.0.0 </t>
   </si>
@@ -285,12 +286,48 @@
   </si>
   <si>
     <t>Широковещательный 10.11.0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP адрес подсети  10.11.0.8 </t>
+  </si>
+  <si>
+    <t>IP 1 компьютера 10.11.0.9</t>
+  </si>
+  <si>
+    <t>IP n компьютера 10.11.0.13</t>
+  </si>
+  <si>
+    <t>Широковещательный 10.11.0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP адрес подсети  10.11.0.16 </t>
+  </si>
+  <si>
+    <t>IP 1 компьютера 10.11.0.17</t>
+  </si>
+  <si>
+    <t>IP n компьютера 10.11.0.21</t>
+  </si>
+  <si>
+    <t>Широковещательный 10.11.0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP адрес подсети  10.11.0.32 </t>
+  </si>
+  <si>
+    <t>IP 1 компьютера 10.11.0.33</t>
+  </si>
+  <si>
+    <t>IP n компьютера 10.11.0.37</t>
+  </si>
+  <si>
+    <t>Широковещательный 10.11.0.63</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -704,11 +741,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C20" sqref="C20:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,6 +851,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -822,6 +863,12 @@
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -830,6 +877,12 @@
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -838,6 +891,12 @@
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -846,6 +905,12 @@
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -854,12 +919,22 @@
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="5"/>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -868,6 +943,12 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -876,84 +957,142 @@
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -961,7 +1100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -969,7 +1108,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>49</v>
       </c>
@@ -977,7 +1116,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>51</v>
       </c>
@@ -985,7 +1124,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>53</v>
       </c>
@@ -993,7 +1132,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>55</v>
       </c>
@@ -1124,7 +1263,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A44:B44"/>
@@ -1136,28 +1275,37 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29"/>
-    <hyperlink ref="A4" r:id="rId2" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29"/>
-    <hyperlink ref="A9" r:id="rId3" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29"/>
-    <hyperlink ref="A10" r:id="rId4" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29"/>
-    <hyperlink ref="A15" r:id="rId5" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29"/>
-    <hyperlink ref="A16" r:id="rId6" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29"/>
-    <hyperlink ref="A21" r:id="rId7" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29"/>
-    <hyperlink ref="A22" r:id="rId8" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29"/>
-    <hyperlink ref="A27" r:id="rId9" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29"/>
-    <hyperlink ref="A28" r:id="rId10" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29"/>
-    <hyperlink ref="A33" r:id="rId11" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29"/>
-    <hyperlink ref="A34" r:id="rId12" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29"/>
-    <hyperlink ref="A39" r:id="rId13" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29"/>
-    <hyperlink ref="A40" r:id="rId14" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29"/>
-    <hyperlink ref="A45" r:id="rId15" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29"/>
-    <hyperlink ref="A46" r:id="rId16" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29"/>
-    <hyperlink ref="C3" r:id="rId17" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29"/>
-    <hyperlink ref="C4" r:id="rId18" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29"/>
+    <hyperlink ref="A3" r:id="rId1" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A9" r:id="rId3" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A10" r:id="rId4" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A15" r:id="rId5" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A16" r:id="rId6" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A21" r:id="rId7" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A22" r:id="rId8" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A27" r:id="rId9" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A28" r:id="rId10" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A33" r:id="rId11" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A34" r:id="rId12" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A39" r:id="rId13" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A40" r:id="rId14" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A45" r:id="rId15" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A46" r:id="rId16" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C3" r:id="rId17" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C4" r:id="rId18" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C9" r:id="rId19" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{E135EED3-7A43-4815-AF20-59FC81FFC8C6}"/>
+    <hyperlink ref="C10" r:id="rId20" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{9A4CA72C-5922-4898-8542-9F2747E866D5}"/>
+    <hyperlink ref="C15" r:id="rId21" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{F146D0A2-0C69-4BA4-B27D-D0EE0079B40A}"/>
+    <hyperlink ref="C16" r:id="rId22" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{19EC03A2-8002-46F3-89C0-424D7314F9FE}"/>
+    <hyperlink ref="C21" r:id="rId23" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{2B34711B-BA6D-44B7-A384-A4B191309665}"/>
+    <hyperlink ref="C22" r:id="rId24" display="http://ipmeter.ru/?network=172.16.0.0&amp;mask_prefix=29" xr:uid="{37DB3299-287C-45C3-A0A9-1EE7B23CC9AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>